--- a/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/原型设计输入文档/因卓教育项目计划.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/原型设计输入文档/因卓教育项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="3" r:id="rId1"/>
@@ -834,25 +834,25 @@
                   <c:v>42967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42986</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43007</c:v>
+                  <c:v>42921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43039</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43039</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43039</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43007</c:v>
+                  <c:v>42993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43091</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,16 +2188,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="90.125" customWidth="1"/>
+    <col min="2" max="2" width="90.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" ht="81">
+    <row r="4" spans="2:2" ht="81.599999999999994">
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2212,17 +2212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="5">
-        <v>42986</v>
+        <v>42885</v>
       </c>
       <c r="C10" s="6">
         <f>8.365+3.69</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>43004</v>
+        <v>42903</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2402,7 +2402,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5">
-        <v>43007</v>
+        <v>42921</v>
       </c>
       <c r="C11" s="6">
         <f>11.75+8.125</f>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>43036</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2422,7 +2422,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5">
-        <v>43039</v>
+        <v>42993</v>
       </c>
       <c r="C12" s="6">
         <v>33</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>43088</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2441,7 +2441,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="5">
-        <v>43039</v>
+        <v>42993</v>
       </c>
       <c r="C13" s="6">
         <v>33</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>43088</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2460,7 +2460,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="5">
-        <v>43039</v>
+        <v>42993</v>
       </c>
       <c r="C14" s="6">
         <v>28.626000000000001</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>43081</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2479,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="5">
-        <v>43007</v>
+        <v>42993</v>
       </c>
       <c r="C15" s="6">
         <v>40.130000000000003</v>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>43067</v>
+        <v>43053</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2498,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="5">
-        <v>43091</v>
+        <v>43056</v>
       </c>
       <c r="C16" s="6">
         <v>11.00653</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>43107</v>
+        <v>43072</v>
       </c>
     </row>
   </sheetData>
@@ -2523,11 +2523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/原型设计输入文档/因卓教育项目计划.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/原型设计输入文档/因卓教育项目计划.xlsx
@@ -2210,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2223,9 +2223,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2261,8 +2262,11 @@
         <f>DATE(YEAR(B3), MONTH(B3), DAY(B3) + D3)</f>
         <v>42882</v>
       </c>
+      <c r="F3" s="1">
+        <v>42884</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>42964</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>42945</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>42983</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2401,7 @@
         <v>42903</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
